--- a/Gestion Stock 2024/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2024.xlsx
+++ b/Gestion Stock 2024/Gestion de Stock Tlathet Douairs/Suivie pose Compteur Tlathet Douairs 2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="315" yWindow="195" windowWidth="6900" windowHeight="2025" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="315" yWindow="195" windowWidth="6900" windowHeight="2025" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2024" sheetId="12" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="571">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -1935,6 +1935,9 @@
   </si>
   <si>
     <t>Soufi kamel</t>
+  </si>
+  <si>
+    <t>641595</t>
   </si>
 </sst>
 </file>
@@ -5303,8 +5306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48:E67"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6484,7 +6487,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>81</v>
+        <v>570</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>29</v>
@@ -9005,8 +9008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F46" sqref="A1:F46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
